--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salih\IdeaProjects\gitProjects\HRMSBATCH17\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40981D75-E31F-4427-95AE-FA22971CB82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208533E-9D1C-4B24-838C-4EB7BF06134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -85,22 +85,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,25 +127,244 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,48 +634,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -465,14 +689,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -488,14 +712,14 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -511,119 +735,14 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salih\IdeaProjects\gitProjects\HRMSBATCH17\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208533E-9D1C-4B24-838C-4EB7BF06134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887CC0B-2526-4FDA-8765-C4CFAB37CAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>firstName</t>
   </si>
@@ -52,41 +52,38 @@
     <t>saif</t>
   </si>
   <si>
-    <t>nafi123</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>muhayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms </t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>muha123</t>
-  </si>
-  <si>
     <t>raihana</t>
   </si>
   <si>
     <t>adrian</t>
   </si>
   <si>
-    <t>rai123</t>
+    <t>salih</t>
+  </si>
+  <si>
+    <t>aygun</t>
   </si>
   <si>
     <t>C:\Users\salih\Desktop\dask.jpg</t>
+  </si>
+  <si>
+    <t>rayueti123531234</t>
+  </si>
+  <si>
+    <t>msraihan3211234</t>
+  </si>
+  <si>
+    <t>salih32981234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,18 +92,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,18 +120,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +623,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -651,19 +637,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -684,65 +670,73 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{CF180FBB-6AF8-4FE2-A86C-305D835AEF79}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{3F3930E4-C829-42BD-B009-81B28E160DF2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>